--- a/level-2/leetcode/phase-2-basic-algorithms-2/leetcode-phase-2-basic-algorithms-2.xlsx
+++ b/level-2/leetcode/phase-2-basic-algorithms-2/leetcode-phase-2-basic-algorithms-2.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C84436-F09C-46AC-A943-8EE4F2A338D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830BEA8A-D36B-4BDD-8D05-A68EEBD41737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="basic-algorithms-2" sheetId="14" r:id="rId1"/>
+    <sheet name="leetcode basic-algorithms-2" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5446,101 +5446,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 J20:J23 A1 I24:J26">
-    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J65 J67:J70">
-    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J71">
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J164" r:id="rId1" xr:uid="{D7C645A2-DD55-4743-8B28-82A244E1F8FA}"/>
     <hyperlink ref="J191" r:id="rId2" xr:uid="{DD298905-F904-48E4-A1F7-F69848B1F2A7}"/>
